--- a/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>68486</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54622</v>
+        <v>53522</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85010</v>
+        <v>84832</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09183202856202188</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07324254611348409</v>
+        <v>0.07176672995877745</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1139897721625441</v>
+        <v>0.1137503058856746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -763,19 +763,19 @@
         <v>45291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33097</v>
+        <v>33526</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59176</v>
+        <v>60759</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04608779747121699</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03367930678426151</v>
+        <v>0.03411573079277386</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06021658087434208</v>
+        <v>0.06182745000593083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -784,19 +784,19 @@
         <v>113777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94997</v>
+        <v>93147</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135771</v>
+        <v>137302</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06582454205116939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05495957708463379</v>
+        <v>0.05388923191162571</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07854882511414504</v>
+        <v>0.0794346766515814</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>677287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>660763</v>
+        <v>660941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>691151</v>
+        <v>692251</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9081679714379781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8860102278374561</v>
+        <v>0.8862496941143256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.926757453886516</v>
+        <v>0.9282332700412227</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>839</v>
@@ -834,19 +834,19 @@
         <v>937428</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>923543</v>
+        <v>921960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>949622</v>
+        <v>949193</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9539122025287831</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9397834191256579</v>
+        <v>0.9381725499940692</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9663206932157385</v>
+        <v>0.9658842692072261</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1525</v>
@@ -855,19 +855,19 @@
         <v>1614714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1592720</v>
+        <v>1591189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1633494</v>
+        <v>1635344</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9341754579488306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9214511748858553</v>
+        <v>0.9205653233484197</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9450404229153669</v>
+        <v>0.9461107680883746</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>298087</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>267199</v>
+        <v>269790</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>336967</v>
+        <v>333451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1441917862915416</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1292503075163382</v>
+        <v>0.1305038992250409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.162999161735737</v>
+        <v>0.1612983967735677</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>189</v>
@@ -980,19 +980,19 @@
         <v>190806</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>167025</v>
+        <v>164277</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>218160</v>
+        <v>216231</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09642476592512127</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08440701485167171</v>
+        <v>0.08301853178486077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1102481692677888</v>
+        <v>0.1092736022631462</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>476</v>
@@ -1001,19 +1001,19 @@
         <v>488893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>449037</v>
+        <v>449418</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>536719</v>
+        <v>533645</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1208306151574779</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1109801974416854</v>
+        <v>0.1110743765792982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1326510466021707</v>
+        <v>0.13189125681733</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1769208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1730328</v>
+        <v>1733844</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1800096</v>
+        <v>1797505</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8558082137084584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.837000838264263</v>
+        <v>0.8387016032264326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8707496924836617</v>
+        <v>0.8694961007749594</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1711</v>
@@ -1051,19 +1051,19 @@
         <v>1787999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1760645</v>
+        <v>1762574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1811780</v>
+        <v>1814528</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9035752340748787</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8897518307322112</v>
+        <v>0.8907263977368538</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9155929851483282</v>
+        <v>0.916981468215139</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3368</v>
@@ -1072,19 +1072,19 @@
         <v>3557207</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3509381</v>
+        <v>3512455</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3597063</v>
+        <v>3596682</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8791693848425222</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8673489533978292</v>
+        <v>0.8681087431826701</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8890198025583145</v>
+        <v>0.8889256234207017</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>45701</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33984</v>
+        <v>33941</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60549</v>
+        <v>59346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08401513070153659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06247493250941689</v>
+        <v>0.06239532515334158</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1113106074802581</v>
+        <v>0.1090996420733073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1197,19 +1197,19 @@
         <v>39227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27902</v>
+        <v>28681</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51976</v>
+        <v>53486</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07168950334013663</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05099185554535762</v>
+        <v>0.05241620685942826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09498803703568461</v>
+        <v>0.09774891378949152</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -1218,19 +1218,19 @@
         <v>84928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68481</v>
+        <v>67785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105452</v>
+        <v>102530</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07783416217316654</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06276109459363988</v>
+        <v>0.06212264690720828</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09664364040624</v>
+        <v>0.0939652159048974</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>498264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>483416</v>
+        <v>484619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509981</v>
+        <v>510024</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9159848692984635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.888689392519742</v>
+        <v>0.8909003579266925</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9375250674905831</v>
+        <v>0.9376046748466581</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>485</v>
@@ -1268,19 +1268,19 @@
         <v>507953</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>495204</v>
+        <v>493694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>519278</v>
+        <v>518499</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9283104966598633</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9050119629643155</v>
+        <v>0.902251086210509</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9490081444546424</v>
+        <v>0.9475837931405718</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>940</v>
@@ -1289,19 +1289,19 @@
         <v>1006217</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>985693</v>
+        <v>988615</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1022664</v>
+        <v>1023360</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9221658378268335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9033563595937599</v>
+        <v>0.9060347840951024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.93723890540636</v>
+        <v>0.9378773530927916</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>412274</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>374962</v>
+        <v>379150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>449173</v>
+        <v>455666</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1228090665218637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1116945482072884</v>
+        <v>0.1129420367067408</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1338004535299138</v>
+        <v>0.1357347092858094</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>272</v>
@@ -1414,19 +1414,19 @@
         <v>275324</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>245407</v>
+        <v>245343</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>308231</v>
+        <v>308567</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07846892830598529</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0699424422828214</v>
+        <v>0.06992398877061651</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08784744003171528</v>
+        <v>0.08794325505993579</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>671</v>
@@ -1435,19 +1435,19 @@
         <v>687598</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>638790</v>
+        <v>639540</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>737514</v>
+        <v>738138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1001492375781806</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09304027112743647</v>
+        <v>0.09314948095783866</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1074195010407713</v>
+        <v>0.1075103214674453</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>2944759</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2907860</v>
+        <v>2901367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2982071</v>
+        <v>2977883</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8771909334781363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8661995464700861</v>
+        <v>0.8642652907141908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.888305451792712</v>
+        <v>0.8870579632932594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3035</v>
@@ -1485,19 +1485,19 @@
         <v>3233380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3200473</v>
+        <v>3200137</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3263297</v>
+        <v>3263361</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9215310716940147</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9121525599682846</v>
+        <v>0.9120567449400643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9300575577171782</v>
+        <v>0.9300760112293838</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5833</v>
@@ -1506,19 +1506,19 @@
         <v>6178139</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6128223</v>
+        <v>6127599</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6226947</v>
+        <v>6226197</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8998507624218194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8925804989592288</v>
+        <v>0.8924896785325547</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9069597288725635</v>
+        <v>0.9068505190421613</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>40763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29120</v>
+        <v>30355</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56615</v>
+        <v>56804</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0706333877880768</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05045853789899112</v>
+        <v>0.05259864798689984</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09810094107600624</v>
+        <v>0.098428286864173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -1870,19 +1870,19 @@
         <v>21496</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14243</v>
+        <v>14048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31994</v>
+        <v>30856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02615006118126418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01732675834374902</v>
+        <v>0.01708937571549357</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03892028721048695</v>
+        <v>0.03753544202951212</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -1891,19 +1891,19 @@
         <v>62260</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46763</v>
+        <v>47655</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79212</v>
+        <v>80054</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04449825413450088</v>
+        <v>0.04449825413450086</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03342209313340998</v>
+        <v>0.03405975815248824</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05661447285566713</v>
+        <v>0.05721623958573398</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>536349</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>520497</v>
+        <v>520308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>547992</v>
+        <v>546757</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9293666122119233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9018990589239938</v>
+        <v>0.901571713135827</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9495414621010089</v>
+        <v>0.9474013520131003</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1399</v>
@@ -1941,19 +1941,19 @@
         <v>800542</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>790044</v>
+        <v>791182</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>807795</v>
+        <v>807990</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9738499388187357</v>
+        <v>0.9738499388187358</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9610797127895131</v>
+        <v>0.9624645579704879</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.982673241656251</v>
+        <v>0.9829106242845064</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2049</v>
@@ -1962,19 +1962,19 @@
         <v>1336890</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1319938</v>
+        <v>1319096</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1352387</v>
+        <v>1351495</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9555017458654991</v>
+        <v>0.955501745865499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.943385527144333</v>
+        <v>0.9427837604142659</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9665779068665902</v>
+        <v>0.9659402418475118</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>190044</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158174</v>
+        <v>159666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224876</v>
+        <v>226496</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08530200989535101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07099685589081611</v>
+        <v>0.0716665740290084</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1009364061774504</v>
+        <v>0.1016632137186243</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -2087,19 +2087,19 @@
         <v>98034</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79394</v>
+        <v>80391</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121572</v>
+        <v>121103</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04529644599747276</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03668391074386664</v>
+        <v>0.03714449417101085</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05617205182428845</v>
+        <v>0.05595572051530619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>239</v>
@@ -2108,19 +2108,19 @@
         <v>288078</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>249733</v>
+        <v>248259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>325881</v>
+        <v>330646</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0655890085856603</v>
+        <v>0.06558900858566034</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05685871128757559</v>
+        <v>0.05652307758334037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0741958399625918</v>
+        <v>0.07528077254501007</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2037857</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2003025</v>
+        <v>2001405</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2069727</v>
+        <v>2068235</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.914697990104649</v>
+        <v>0.9146979901046491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8990635938225494</v>
+        <v>0.8983367862813757</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9290031441091837</v>
+        <v>0.9283334259709916</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2804</v>
@@ -2158,19 +2158,19 @@
         <v>2066238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2042700</v>
+        <v>2043169</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2084878</v>
+        <v>2083881</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9547035540025272</v>
+        <v>0.9547035540025273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9438279481757117</v>
+        <v>0.9440442794846939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9633160892561334</v>
+        <v>0.9628555058289894</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4660</v>
@@ -2179,19 +2179,19 @@
         <v>4104095</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4066292</v>
+        <v>4061527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4142440</v>
+        <v>4143914</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9344109914143396</v>
+        <v>0.9344109914143397</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9258041600374082</v>
+        <v>0.9247192274549895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9431412887124243</v>
+        <v>0.9434769224166596</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>32102</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21285</v>
+        <v>21572</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49899</v>
+        <v>51054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0451126304490413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02991223080253607</v>
+        <v>0.03031556257919684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07012376296832083</v>
+        <v>0.07174613201595154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -2304,19 +2304,19 @@
         <v>24179</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14877</v>
+        <v>14395</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36916</v>
+        <v>37598</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03300016826001712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02030492263127255</v>
+        <v>0.01964679977665298</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05038420352341209</v>
+        <v>0.05131424598568599</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -2325,19 +2325,19 @@
         <v>56281</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41324</v>
+        <v>41576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77348</v>
+        <v>76182</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03896787856412249</v>
+        <v>0.03896787856412248</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02861180643296005</v>
+        <v>0.02878677565811232</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05355488001334864</v>
+        <v>0.05274701414223606</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>679485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>661688</v>
+        <v>660533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>690302</v>
+        <v>690015</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9548873695509588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.929876237031679</v>
+        <v>0.9282538679840487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9700877691974636</v>
+        <v>0.969684437420803</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>979</v>
@@ -2375,19 +2375,19 @@
         <v>708518</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>695781</v>
+        <v>695099</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>717820</v>
+        <v>718302</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9669998317399827</v>
+        <v>0.9669998317399829</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9496157964765879</v>
+        <v>0.9486857540143137</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9796950773687274</v>
+        <v>0.9803532002233469</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1636</v>
@@ -2396,19 +2396,19 @@
         <v>1388003</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1366936</v>
+        <v>1368102</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1402960</v>
+        <v>1402708</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9610321214358775</v>
+        <v>0.9610321214358776</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9464451199866513</v>
+        <v>0.9472529858577639</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.97138819356704</v>
+        <v>0.9712132243418873</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>262909</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>224181</v>
+        <v>226365</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>302353</v>
+        <v>307352</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07476237572913501</v>
+        <v>0.07476237572913498</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06374944338222155</v>
+        <v>0.06437040959301588</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08597873836167644</v>
+        <v>0.08740024443348196</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>157</v>
@@ -2521,19 +2521,19 @@
         <v>143709</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122214</v>
+        <v>121289</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171353</v>
+        <v>170804</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03864184611483339</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0328619366421217</v>
+        <v>0.03261327411974681</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0460749130198807</v>
+        <v>0.04592728870335057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>353</v>
@@ -2542,19 +2542,19 @@
         <v>406619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>363425</v>
+        <v>365869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>453043</v>
+        <v>452657</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05619689942065685</v>
+        <v>0.05619689942065687</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05022724578206614</v>
+        <v>0.05056506931614104</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06261297487195724</v>
+        <v>0.06255968874514348</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3253692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3214248</v>
+        <v>3209249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3292420</v>
+        <v>3290236</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9252376242708651</v>
+        <v>0.9252376242708652</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9140212616383234</v>
+        <v>0.912599755566518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9362505566177783</v>
+        <v>0.935629590406984</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5182</v>
@@ -2592,19 +2592,19 @@
         <v>3575298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3547654</v>
+        <v>3548203</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3596793</v>
+        <v>3597718</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9613581538851668</v>
+        <v>0.9613581538851665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9539250869801194</v>
+        <v>0.9540727112966496</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9671380633578787</v>
+        <v>0.967386725880253</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8345</v>
@@ -2613,19 +2613,19 @@
         <v>6828989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6782565</v>
+        <v>6782951</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6872183</v>
+        <v>6869739</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9438031005793428</v>
+        <v>0.943803100579343</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9373870251280427</v>
+        <v>0.9374403112548562</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9497727542179338</v>
+        <v>0.9494349306838588</v>
       </c>
     </row>
     <row r="15">
